--- a/result/团队_鑫e贷总授信完成情况.xlsx
+++ b/result/团队_鑫e贷总授信完成情况.xlsx
@@ -486,22 +486,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -532,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -607,22 +607,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -725,25 +725,25 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="I12">
-        <v>1.476923076923077</v>
+        <v>1.830769230769231</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>14</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="I13">
-        <v>1.138461538461538</v>
+        <v>2.076923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>65</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I14">
-        <v>0.6923076923076923</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>0.9166666666666666</v>
+        <v>1.266666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>12</v>
       </c>
       <c r="F16">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I16">
-        <v>0.9833333333333333</v>
+        <v>1.183333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,25 +870,25 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I17">
-        <v>0.6</v>
+        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>60</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I18">
-        <v>0.9166666666666666</v>
+        <v>1.183333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/result/团队_鑫e贷总授信完成情况.xlsx
+++ b/result/团队_鑫e贷总授信完成情况.xlsx
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -653,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -725,7 +725,7 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>82</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I12">
-        <v>1.830769230769231</v>
+        <v>1.861538461538462</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,7 +754,7 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>95</v>
@@ -763,16 +763,16 @@
         <v>14</v>
       </c>
       <c r="F13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I13">
-        <v>2.076923076923077</v>
+        <v>2.123076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,13 +783,13 @@
         <v>65</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I14">
-        <v>0.8461538461538461</v>
+        <v>0.9538461538461539</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,13 +812,13 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>42</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>28</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I15">
-        <v>1.266666666666667</v>
+        <v>1.383333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,7 +841,7 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>28</v>
@@ -850,16 +850,16 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>1.183333333333333</v>
+        <v>1.216666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>29</v>
@@ -899,7 +899,7 @@
         <v>60</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>32</v>

--- a/result/团队_鑫e贷总授信完成情况.xlsx
+++ b/result/团队_鑫e贷总授信完成情况.xlsx
@@ -532,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -725,25 +725,25 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I12">
-        <v>1.861538461538462</v>
+        <v>1.892307692307692</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,7 +754,7 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>95</v>
@@ -763,16 +763,16 @@
         <v>14</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I13">
-        <v>2.123076923076923</v>
+        <v>2.230769230769231</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -841,7 +841,7 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>28</v>
@@ -850,16 +850,16 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16">
-        <v>1.216666666666667</v>
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>29</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17">
-        <v>0.9833333333333333</v>
+        <v>1.016666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,7 +899,7 @@
         <v>60</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18">
-        <v>1.183333333333333</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/result/团队_鑫e贷总授信完成情况.xlsx
+++ b/result/团队_鑫e贷总授信完成情况.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>鑫e贷总授信（A/B款）_指标</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>黄旭</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -489,19 +486,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -512,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -524,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -532,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -547,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -584,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -596,10 +593,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -633,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -645,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -653,10 +647,10 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -668,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -679,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -691,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -725,25 +719,25 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>1.892307692307692</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,13 +748,13 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>36</v>
@@ -769,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="I13">
-        <v>2.230769230769231</v>
+        <v>0.6307692307692307</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +777,25 @@
         <v>65</v>
       </c>
       <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>46</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I14">
-        <v>0.9538461538461539</v>
+        <v>0.3230769230769231</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +806,25 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1.383333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,22 +838,22 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1.233333333333333</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,25 +864,25 @@
         <v>60</v>
       </c>
       <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>29</v>
-      </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>1.016666666666667</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +893,25 @@
         <v>60</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>1.2</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/result/团队_鑫e贷总授信完成情况.xlsx
+++ b/result/团队_鑫e贷总授信完成情况.xlsx
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -647,10 +647,10 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -719,25 +719,25 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>0.1538461538461539</v>
+        <v>0.3538461538461539</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -748,7 +748,7 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I13">
-        <v>0.6307692307692307</v>
+        <v>0.9076923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,10 +777,10 @@
         <v>65</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>0.3230769230769231</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,10 +806,10 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I15">
-        <v>0.03333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,7 +835,7 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0.05</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,25 +864,25 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I17">
-        <v>0.1166666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>60</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I18">
-        <v>0.1166666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
   </sheetData>
